--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411AE2E-BCFF-47E3-9411-D9CAE291C4D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +26,163 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+  <si>
+    <t>F1, cm</t>
+  </si>
+  <si>
+    <t>zero, mkm</t>
+  </si>
+  <si>
+    <t>img size</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>D1, mkm</t>
+  </si>
+  <si>
+    <t>dL</t>
+  </si>
+  <si>
+    <t>D, mkm</t>
+  </si>
+  <si>
+    <t>sigma a1</t>
+  </si>
+  <si>
+    <t>b1, cm</t>
+  </si>
+  <si>
+    <t>a1, cm</t>
+  </si>
+  <si>
+    <t>sigma b1</t>
+  </si>
+  <si>
+    <t>L, cm</t>
+  </si>
+  <si>
+    <t>sigma L</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>sigma G</t>
+  </si>
+  <si>
+    <t>th a1</t>
+  </si>
+  <si>
+    <t>th b1</t>
+  </si>
+  <si>
+    <t>D_L</t>
+  </si>
+  <si>
+    <t>sigma mkm</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>lamda, nm</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>X, mm</t>
+  </si>
+  <si>
+    <t>sigma X</t>
+  </si>
+  <si>
+    <t>sigma Dc</t>
+  </si>
+  <si>
+    <t>sigma L mm</t>
+  </si>
+  <si>
+    <t>L, mm</t>
+  </si>
+  <si>
+    <t>Dc, mm</t>
+  </si>
+  <si>
+    <t>mkm</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>волос</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>d_c</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>1/dc</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +192,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +224,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +251,1964 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2411502624671916"/>
+                  <c:y val="5.5081656459609219E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>A!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>A!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2111-46BD-9D7C-047ABBF05145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="718097424"/>
+        <c:axId val="718097008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="718097424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718097008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="718097008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718097424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27822200349956255"/>
+                  <c:y val="2.1912365121026537E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'C'!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.697084626288166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.330919817645484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.366164808642687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4823775045013985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9859020036011188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'C'!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.377738825591587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8374233128834359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6213847502191061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85122699386503076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2160385626643295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D09-44D2-B449-A5EA20F2D6D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="517356176"/>
+        <c:axId val="716627952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="517356176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716627952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="716627952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517356176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EF165A-3CF2-420C-A869-9C4F58DFDD70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DFA4C6-0324-4154-A89D-A048B97A5D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2473,1361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F45" sqref="D45:F51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3.8</v>
+      </c>
+      <c r="B2">
+        <v>510</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>560</v>
+      </c>
+      <c r="B7">
+        <f>(A7-$B$2)</f>
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <f>C7/$E$19</f>
+        <v>35.545023696682463</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SQRT(($C$2/$E$19)^2 + (B7*$E$20/$E$19^2)^2)</f>
+        <v>0.35764866441454268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>610</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B16" si="0">(A8-$B$2)</f>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E16" si="1">C8/$E$19</f>
+        <v>71.090047393364927</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F16" si="2">SQRT(($C$2/$E$19)^2 + (B8*$E$20/$E$19^2)^2)</f>
+        <v>0.36416432520321007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>660</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>106.63507109004739</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37477211307590813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>710</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>142.18009478672985</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38913752083745662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>760</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>177.72511848341233</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40686272365889148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>810</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>6500</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>231.04265402843603</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.42753003880219898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>860</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="C13">
+        <v>7500</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>266.58767772511851</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.45073493834931061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>910</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C14">
+        <v>9000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>319.90521327014221</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.4761065296913839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>960</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="C15">
+        <v>10500</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>373.22274881516586</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.5033172587705067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1010</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>12000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>426.54028436018956</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.53208504088464148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>4.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3">
+        <f>B21/B19</f>
+        <v>28.133333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3">
+        <f>SQRT((B22/B19)^2+(B21*B20/B19^2)^2)</f>
+        <v>0.62676297307435891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f>86.1+40.5</f>
+        <v>126.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <f>(B23-SQRT(B23^2-4*A2*B23))/2</f>
+        <v>3.9161856841897986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>46+86</f>
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <f>(B23+SQRT(B23^2-4*A2*B23))/2</f>
+        <v>128.0838143158102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <f>B23*10</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f>B25*10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="C32">
+        <f>B32/1000000</f>
+        <v>6.3279999999999999E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>520</v>
+      </c>
+      <c r="B35" s="4">
+        <f>$B$2+1000-A35</f>
+        <v>990</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>71</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <f>2*C35*$C$32*$B$24/D35</f>
+        <v>2.3529464788732392E-2</v>
+      </c>
+      <c r="G35" s="9">
+        <f>2*C35*SQRT(SUMSQ($C$32*$B$26/D35, $B$24*$C$32*E35/D35^2))</f>
+        <v>3.3331297233846283E-4</v>
+      </c>
+      <c r="H35">
+        <f>F35*1000</f>
+        <v>23.52946478873239</v>
+      </c>
+      <c r="I35">
+        <f>1000-B35</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>520</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" ref="B36:B47" si="3">$B$2+1000-A36</f>
+        <v>990</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>143</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:F49" si="4">2*C36*$C$32*$B$24/D36</f>
+        <v>2.3364923076923075E-2</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" ref="G36:G49" si="5">2*C36*SQRT(SUMSQ($C$32*$B$26/D36, $B$24*$C$32*E36/D36^2))</f>
+        <v>1.6718223868465194E-4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H49" si="6">F36*1000</f>
+        <v>23.364923076923073</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I49" si="7">1000-B36</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>570</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="4"/>
+        <v>2.9831999999999997E-2</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="5"/>
+        <v>5.346284225554058E-4</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>29.831999999999997</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>570</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>109</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0653064220183483E-2</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="5"/>
+        <v>2.8503012388426431E-4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>30.653064220183484</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>610</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8850976744186042E-2</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="5"/>
+        <v>9.0542663224601441E-4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>38.850976744186042</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>610</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>85</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="4"/>
+        <v>3.9308047058823528E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="5"/>
+        <v>4.6626699174413946E-4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>39.308047058823526</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>710</v>
+      </c>
+      <c r="B41" s="4">
+        <f>$B$2+1000-A41</f>
+        <v>800</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15187199999999998</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="5"/>
+        <v>1.3808462897156537E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>151.87199999999999</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>710</v>
+      </c>
+      <c r="B42" s="4">
+        <f>$B$2+1000-A42</f>
+        <v>800</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15540390697674417</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="5"/>
+        <v>7.2319228312008885E-3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>155.40390697674417</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>710</v>
+      </c>
+      <c r="B43" s="4">
+        <f>$B$2+1000-A43</f>
+        <v>800</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15420849230769232</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="5"/>
+        <v>4.7506259305581458E-3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>154.20849230769232</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>810</v>
+      </c>
+      <c r="B44" s="4">
+        <f>$B$2+1000-A44</f>
+        <v>700</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="4"/>
+        <v>0.27843199999999996</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="5"/>
+        <v>4.6407250869473206E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>278.43199999999996</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>810</v>
+      </c>
+      <c r="B45" s="4">
+        <f>$B$2+1000-A45</f>
+        <v>700</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="4"/>
+        <v>0.37124266666666661</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="5"/>
+        <v>4.1253020158429902E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>371.24266666666659</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>910</v>
+      </c>
+      <c r="B46" s="4">
+        <f>$B$2+1000-A46</f>
+        <v>600</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="4"/>
+        <v>0.33411839999999998</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6825597548244936E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>334.11840000000001</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>910</v>
+      </c>
+      <c r="B47" s="4">
+        <f>$B$2+1000-A47</f>
+        <v>600</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="4"/>
+        <v>0.37124266666666661</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="5"/>
+        <v>4.1253020158429902E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>371.24266666666659</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1090</v>
+      </c>
+      <c r="B48" s="4">
+        <f>$B$2+1000-A48</f>
+        <v>420</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="4"/>
+        <v>0.83529599999999993</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="5"/>
+        <v>0.41764991757135544</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>835.29599999999994</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1090</v>
+      </c>
+      <c r="B49" s="4">
+        <f>$B$2+1000-A49</f>
+        <v>420</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="4"/>
+        <v>0.55686399999999991</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="5"/>
+        <v>9.2814501738946412E-2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>556.86399999999992</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>32.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD23FA-9054-40C9-ADFC-1B08A9515565}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>2 * B2 * A!$C$32*A!$B$24/B!A2</f>
+        <v>2.2884821917808218E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>2 * B3 * A!$C$32*A!$B$24/B!A3</f>
+        <v>3.4093714285714283E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>2 * B4 * A!$C$32*A!$B$24/B!A4</f>
+        <v>6.9607999999999989E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>12.5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>2 * B5 * A!$C$32*A!$B$24/B!A5</f>
+        <v>0.13364735999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>2 * B6 * A!$C$32*A!$B$24/B!A6</f>
+        <v>0.16705919999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f>B12/B13</f>
+        <v>44.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <f>(86.1+26.1)*10</f>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <f>B11</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>147*2</f>
+        <v>294</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>A!$C$32*B!$E$11*B!$B$10/B!A16</f>
+        <v>1.0625874285714288E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>205</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>A!$C$32*B!$E$11*B!$B$10/B!A17</f>
+        <v>1.523905873170732E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f>A!$C$32*B!$E$11*B!$B$10/B!A18</f>
+        <v>3.0038529230769235E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>52.5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f>A!$C$32*B!$E$11*B!$B$10/B!A19</f>
+        <v>5.9504896000000009E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>A!$C$32*B!$E$11*B!$B$10/B!A20</f>
+        <v>8.2210711578947382E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8669D3-63AE-42D1-B67A-5468032613CA}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1">
+        <f>650/1000</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <f>B3/B2</f>
+        <v>6.1675675675675672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f>(86.1+28)*10</f>
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>A7/B7</f>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <f>D7/$E$2</f>
+        <v>4.377738825591587</v>
+      </c>
+      <c r="G7">
+        <f>1/B!D2</f>
+        <v>43.697084626288166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D11" si="0">A8/B8</f>
+        <v>17.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E11" si="1">D8/$E$2</f>
+        <v>2.8374233128834359</v>
+      </c>
+      <c r="G8">
+        <f>1/B!D3</f>
+        <v>29.330919817645484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.6213847502191061</v>
+      </c>
+      <c r="G9">
+        <f>1/B!D4</f>
+        <v>14.366164808642687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.85122699386503076</v>
+      </c>
+      <c r="G10">
+        <f>1/B!D5</f>
+        <v>7.4823775045013985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.2160385626643295</v>
+      </c>
+      <c r="G11">
+        <f>1/B!D6</f>
+        <v>5.9859020036011188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411AE2E-BCFF-47E3-9411-D9CAE291C4D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BDA74-E6BF-4DAE-8EC8-75951860446F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -424,34 +424,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6500</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7500</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10500</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F45" sqref="D45:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2541,11 +2541,11 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E7">
         <f>C7/$E$19</f>
-        <v>35.545023696682463</v>
+        <v>53.317535545023695</v>
       </c>
       <c r="F7" s="2">
         <f>SQRT(($C$2/$E$19)^2 + (B7*$E$20/$E$19^2)^2)</f>
@@ -2561,11 +2561,11 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E16" si="1">C8/$E$19</f>
-        <v>71.090047393364927</v>
+        <v>106.63507109004739</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ref="F8:F16" si="2">SQRT(($C$2/$E$19)^2 + (B8*$E$20/$E$19^2)^2)</f>
@@ -2581,11 +2581,11 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>106.63507109004739</v>
+        <v>159.95260663507111</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
@@ -2601,11 +2601,11 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>142.18009478672985</v>
+        <v>195.49763033175356</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
@@ -2621,11 +2621,11 @@
         <v>250</v>
       </c>
       <c r="C11">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>177.72511848341233</v>
+        <v>248.81516587677726</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
@@ -2641,11 +2641,11 @@
         <v>300</v>
       </c>
       <c r="C12">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>231.04265402843603</v>
+        <v>302.13270142180096</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
@@ -2661,11 +2661,11 @@
         <v>350</v>
       </c>
       <c r="C13">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>266.58767772511851</v>
+        <v>337.67772511848341</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -2681,11 +2681,11 @@
         <v>400</v>
       </c>
       <c r="C14">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>319.90521327014221</v>
+        <v>390.99526066350711</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
@@ -2701,11 +2701,11 @@
         <v>450</v>
       </c>
       <c r="C15">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>373.22274881516586</v>
+        <v>444.31279620853081</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
@@ -2721,11 +2721,11 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>426.54028436018956</v>
+        <v>497.63033175355451</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -2791,7 +2791,6 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <f>46+86</f>
         <v>132</v>
       </c>
       <c r="D23" t="s">
@@ -2907,7 +2906,7 @@
         <v>520</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" ref="B36:B47" si="3">$B$2+1000-A36</f>
+        <f t="shared" ref="B36:B40" si="3">$B$2+1000-A36</f>
         <v>990</v>
       </c>
       <c r="C36" s="4">
@@ -3077,7 +3076,7 @@
         <v>710</v>
       </c>
       <c r="B41" s="4">
-        <f>$B$2+1000-A41</f>
+        <f t="shared" ref="B41:B49" si="8">$B$2+1000-A41</f>
         <v>800</v>
       </c>
       <c r="C41" s="4">
@@ -3111,7 +3110,7 @@
         <v>710</v>
       </c>
       <c r="B42" s="4">
-        <f>$B$2+1000-A42</f>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="C42" s="4">
@@ -3145,7 +3144,7 @@
         <v>710</v>
       </c>
       <c r="B43" s="4">
-        <f>$B$2+1000-A43</f>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="C43" s="4">
@@ -3179,7 +3178,7 @@
         <v>810</v>
       </c>
       <c r="B44" s="4">
-        <f>$B$2+1000-A44</f>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="C44" s="4">
@@ -3213,7 +3212,7 @@
         <v>810</v>
       </c>
       <c r="B45" s="4">
-        <f>$B$2+1000-A45</f>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="C45" s="4">
@@ -3247,7 +3246,7 @@
         <v>910</v>
       </c>
       <c r="B46" s="4">
-        <f>$B$2+1000-A46</f>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="C46" s="4">
@@ -3281,7 +3280,7 @@
         <v>910</v>
       </c>
       <c r="B47" s="4">
-        <f>$B$2+1000-A47</f>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="C47" s="4">
@@ -3315,7 +3314,7 @@
         <v>1090</v>
       </c>
       <c r="B48" s="4">
-        <f>$B$2+1000-A48</f>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="C48" s="4">
@@ -3349,7 +3348,7 @@
         <v>1090</v>
       </c>
       <c r="B49" s="4">
-        <f>$B$2+1000-A49</f>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="C49" s="4">
@@ -3652,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8669D3-63AE-42D1-B67A-5468032613CA}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BDA74-E6BF-4DAE-8EC8-75951860446F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429148E-E41D-4F8B-9B1C-4F7AADD837BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>F1, cm</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>1/dc</t>
+  </si>
+  <si>
+    <t>Dc</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,18 +204,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,22 +217,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2476,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2845,58 +2856,59 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>520</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <f>$B$2+1000-A35</f>
         <v>990</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
-        <v>71</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="5">
+        <v>142</v>
+      </c>
+      <c r="E35" s="5">
         <v>1</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <f>2*C35*$C$32*$B$24/D35</f>
-        <v>2.3529464788732392E-2</v>
-      </c>
-      <c r="G35" s="9">
+        <v>1.1764732394366196E-2</v>
+      </c>
+      <c r="G35" s="6">
         <f>2*C35*SQRT(SUMSQ($C$32*$B$26/D35, $B$24*$C$32*E35/D35^2))</f>
-        <v>3.3331297233846283E-4</v>
-      </c>
-      <c r="H35">
+        <v>8.4746111881457242E-5</v>
+      </c>
+      <c r="H35" s="4">
         <f>F35*1000</f>
-        <v>23.52946478873239</v>
-      </c>
-      <c r="I35">
+        <v>11.764732394366195</v>
+      </c>
+      <c r="I35" s="4">
         <f>1000-B35</f>
         <v>10</v>
       </c>
@@ -2905,33 +2917,33 @@
       <c r="A36">
         <v>520</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <f t="shared" ref="B36:B40" si="3">$B$2+1000-A36</f>
         <v>990</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="D36" s="4">
-        <v>143</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="5">
+        <v>286</v>
+      </c>
+      <c r="E36" s="5">
         <v>1</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" ref="F36:F49" si="4">2*C36*$C$32*$B$24/D36</f>
-        <v>2.3364923076923075E-2</v>
-      </c>
-      <c r="G36" s="9">
-        <f t="shared" ref="G36:G49" si="5">2*C36*SQRT(SUMSQ($C$32*$B$26/D36, $B$24*$C$32*E36/D36^2))</f>
-        <v>1.6718223868465194E-4</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H49" si="6">F36*1000</f>
-        <v>23.364923076923073</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ref="I36:I49" si="7">1000-B36</f>
+      <c r="F36" s="6">
+        <f>2*C36*$C$32*$B$24/D36</f>
+        <v>1.1682461538461537E-2</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36:G49" si="4">2*C36*SQRT(SUMSQ($C$32*$B$26/D36, $B$24*$C$32*E36/D36^2))</f>
+        <v>4.4518028651615724E-5</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" ref="H36:H49" si="5">F36*1000</f>
+        <v>11.682461538461537</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" ref="I36:I49" si="6">1000-B36</f>
         <v>10</v>
       </c>
     </row>
@@ -2939,33 +2951,33 @@
       <c r="A37">
         <v>570</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <f t="shared" si="3"/>
         <v>940</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
-        <v>56</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="5">
+        <v>28</v>
+      </c>
+      <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="6">
+        <f t="shared" ref="F36:F49" si="7">2*C37*$C$32*$B$24/D37</f>
+        <v>5.9663999999999995E-2</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="4"/>
-        <v>2.9831999999999997E-2</v>
-      </c>
-      <c r="G37" s="9">
+        <v>2.1327738565692579E-3</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="5"/>
-        <v>5.346284225554058E-4</v>
-      </c>
-      <c r="H37">
+        <v>59.663999999999994</v>
+      </c>
+      <c r="I37" s="4">
         <f t="shared" si="6"/>
-        <v>29.831999999999997</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
@@ -2973,33 +2985,33 @@
       <c r="A38">
         <v>570</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <f t="shared" si="3"/>
         <v>940</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>2</v>
       </c>
-      <c r="D38" s="4">
-        <v>109</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="5">
+        <v>54</v>
+      </c>
+      <c r="E38" s="5">
         <v>1</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
+        <f t="shared" si="7"/>
+        <v>6.1873777777777771E-2</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="4"/>
-        <v>3.0653064220183483E-2</v>
-      </c>
-      <c r="G38" s="9">
+        <v>1.1496394541649321E-3</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="5"/>
-        <v>2.8503012388426431E-4</v>
-      </c>
-      <c r="H38">
+        <v>61.873777777777768</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="6"/>
-        <v>30.653064220183484</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
@@ -3007,33 +3019,33 @@
       <c r="A39">
         <v>610</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>1</v>
       </c>
-      <c r="D39" s="4">
-        <v>43</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="5">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5">
         <v>1</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
+        <f t="shared" si="7"/>
+        <v>9.8270117647058813E-2</v>
+      </c>
+      <c r="G39" s="6">
         <f t="shared" si="4"/>
-        <v>3.8850976744186042E-2</v>
-      </c>
-      <c r="G39" s="9">
+        <v>5.7825124135171737E-3</v>
+      </c>
+      <c r="H39" s="4">
         <f t="shared" si="5"/>
-        <v>9.0542663224601441E-4</v>
-      </c>
-      <c r="H39">
+        <v>98.270117647058811</v>
+      </c>
+      <c r="I39" s="4">
         <f t="shared" si="6"/>
-        <v>38.850976744186042</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
@@ -3041,33 +3053,33 @@
       <c r="A40">
         <v>610</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>2</v>
       </c>
-      <c r="D40" s="4">
-        <v>85</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="5">
+        <v>33</v>
+      </c>
+      <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6">
+        <f t="shared" si="7"/>
+        <v>0.10124799999999999</v>
+      </c>
+      <c r="G40" s="6">
         <f t="shared" si="4"/>
-        <v>3.9308047058823528E-2</v>
-      </c>
-      <c r="G40" s="9">
+        <v>3.071953969658205E-3</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="5"/>
-        <v>4.6626699174413946E-4</v>
-      </c>
-      <c r="H40">
+        <v>101.24799999999999</v>
+      </c>
+      <c r="I40" s="4">
         <f t="shared" si="6"/>
-        <v>39.308047058823526</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
@@ -3075,33 +3087,33 @@
       <c r="A41">
         <v>710</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <f t="shared" ref="B41:B49" si="8">$B$2+1000-A41</f>
         <v>800</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="4">
-        <v>11</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="5">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="7">
+        <f t="shared" si="7"/>
+        <v>0.20882399999999998</v>
+      </c>
+      <c r="G41" s="6">
         <f t="shared" si="4"/>
-        <v>0.15187199999999998</v>
-      </c>
-      <c r="G41" s="9">
+        <v>2.6104917505328378E-2</v>
+      </c>
+      <c r="H41" s="4">
         <f t="shared" si="5"/>
-        <v>1.3808462897156537E-2</v>
-      </c>
-      <c r="H41">
+        <v>208.82399999999998</v>
+      </c>
+      <c r="I41" s="4">
         <f t="shared" si="6"/>
-        <v>151.87199999999999</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
         <v>200</v>
       </c>
     </row>
@@ -3109,33 +3121,33 @@
       <c r="A42">
         <v>710</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>2</v>
       </c>
-      <c r="D42" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="5">
+        <v>17</v>
+      </c>
+      <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
+        <f t="shared" si="7"/>
+        <v>0.19654023529411763</v>
+      </c>
+      <c r="G42" s="6">
         <f t="shared" si="4"/>
-        <v>0.15540390697674417</v>
-      </c>
-      <c r="G42" s="9">
+        <v>1.1565024827034347E-2</v>
+      </c>
+      <c r="H42" s="4">
         <f t="shared" si="5"/>
-        <v>7.2319228312008885E-3</v>
-      </c>
-      <c r="H42">
+        <v>196.54023529411762</v>
+      </c>
+      <c r="I42" s="4">
         <f t="shared" si="6"/>
-        <v>155.40390697674417</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
         <v>200</v>
       </c>
     </row>
@@ -3143,33 +3155,33 @@
       <c r="A43">
         <v>710</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="5">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5">
         <v>1</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
+        <f t="shared" si="7"/>
+        <v>0.20047104000000002</v>
+      </c>
+      <c r="G43" s="6">
         <f t="shared" si="4"/>
-        <v>0.15420849230769232</v>
-      </c>
-      <c r="G43" s="9">
+        <v>8.0245922652447919E-3</v>
+      </c>
+      <c r="H43" s="4">
         <f t="shared" si="5"/>
-        <v>4.7506259305581458E-3</v>
-      </c>
-      <c r="H43">
+        <v>200.47104000000002</v>
+      </c>
+      <c r="I43" s="4">
         <f t="shared" si="6"/>
-        <v>154.20849230769232</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
         <v>200</v>
       </c>
     </row>
@@ -3177,33 +3189,33 @@
       <c r="A44">
         <v>810</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <f t="shared" si="8"/>
         <v>700</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>6</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="7">
+        <f t="shared" si="7"/>
+        <v>0.27843199999999996</v>
+      </c>
+      <c r="G44" s="6">
         <f t="shared" si="4"/>
-        <v>0.27843199999999996</v>
-      </c>
-      <c r="G44" s="9">
+        <v>4.6407250869473206E-2</v>
+      </c>
+      <c r="H44" s="4">
         <f t="shared" si="5"/>
-        <v>4.6407250869473206E-2</v>
-      </c>
-      <c r="H44">
+        <v>278.43199999999996</v>
+      </c>
+      <c r="I44" s="4">
         <f t="shared" si="6"/>
-        <v>278.43199999999996</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
         <v>300</v>
       </c>
     </row>
@@ -3211,33 +3223,33 @@
       <c r="A45">
         <v>810</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <f t="shared" si="8"/>
         <v>700</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="5">
         <v>2</v>
       </c>
-      <c r="D45" s="4">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="5">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5">
         <v>1</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="7">
+        <f t="shared" si="7"/>
+        <v>0.30374399999999996</v>
+      </c>
+      <c r="G45" s="6">
         <f t="shared" si="4"/>
-        <v>0.37124266666666661</v>
-      </c>
-      <c r="G45" s="9">
+        <v>2.7616925794313074E-2</v>
+      </c>
+      <c r="H45" s="4">
         <f t="shared" si="5"/>
-        <v>4.1253020158429902E-2</v>
-      </c>
-      <c r="H45">
+        <v>303.74399999999997</v>
+      </c>
+      <c r="I45" s="4">
         <f t="shared" si="6"/>
-        <v>371.24266666666659</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="7"/>
         <v>300</v>
       </c>
     </row>
@@ -3245,33 +3257,33 @@
       <c r="A46">
         <v>910</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="4">
-        <v>5</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="5">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
+        <f t="shared" si="7"/>
+        <v>0.41764799999999996</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="4"/>
-        <v>0.33411839999999998</v>
-      </c>
-      <c r="G46" s="9">
+        <v>0.1044139175581493</v>
+      </c>
+      <c r="H46" s="4">
         <f t="shared" si="5"/>
-        <v>6.6825597548244936E-2</v>
-      </c>
-      <c r="H46">
+        <v>417.64799999999997</v>
+      </c>
+      <c r="I46" s="4">
         <f t="shared" si="6"/>
-        <v>334.11840000000001</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="7"/>
         <v>400</v>
       </c>
     </row>
@@ -3279,33 +3291,33 @@
       <c r="A47">
         <v>910</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>9</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>1</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="7">
+        <f t="shared" si="7"/>
+        <v>0.37124266666666661</v>
+      </c>
+      <c r="G47" s="6">
         <f t="shared" si="4"/>
-        <v>0.37124266666666661</v>
-      </c>
-      <c r="G47" s="9">
+        <v>4.1253020158429902E-2</v>
+      </c>
+      <c r="H47" s="4">
         <f t="shared" si="5"/>
-        <v>4.1253020158429902E-2</v>
-      </c>
-      <c r="H47">
+        <v>371.24266666666659</v>
+      </c>
+      <c r="I47" s="4">
         <f t="shared" si="6"/>
-        <v>371.24266666666659</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="7"/>
         <v>400</v>
       </c>
     </row>
@@ -3313,33 +3325,33 @@
       <c r="A48">
         <v>1090</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <f t="shared" si="8"/>
         <v>420</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5">
         <v>1</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
+        <f t="shared" si="7"/>
+        <v>0.55686399999999991</v>
+      </c>
+      <c r="G48" s="6">
         <f t="shared" si="4"/>
-        <v>0.83529599999999993</v>
-      </c>
-      <c r="G48" s="9">
+        <v>0.18562325089918613</v>
+      </c>
+      <c r="H48" s="4">
         <f t="shared" si="5"/>
-        <v>0.41764991757135544</v>
-      </c>
-      <c r="H48">
+        <v>556.86399999999992</v>
+      </c>
+      <c r="I48" s="4">
         <f t="shared" si="6"/>
-        <v>835.29599999999994</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="7"/>
         <v>580</v>
       </c>
     </row>
@@ -3347,33 +3359,33 @@
       <c r="A49">
         <v>1090</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <f t="shared" si="8"/>
         <v>420</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>2</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>6</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>1</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="7">
+        <f t="shared" si="7"/>
+        <v>0.55686399999999991</v>
+      </c>
+      <c r="G49" s="6">
         <f t="shared" si="4"/>
-        <v>0.55686399999999991</v>
-      </c>
-      <c r="G49" s="9">
+        <v>9.2814501738946412E-2</v>
+      </c>
+      <c r="H49" s="4">
         <f t="shared" si="5"/>
-        <v>9.2814501738946412E-2</v>
-      </c>
-      <c r="H49">
+        <v>556.86399999999992</v>
+      </c>
+      <c r="I49" s="4">
         <f t="shared" si="6"/>
-        <v>556.86399999999992</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="7"/>
         <v>580</v>
       </c>
     </row>
@@ -3389,6 +3401,9 @@
       <c r="B53" t="s">
         <v>33</v>
       </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -3397,6 +3412,10 @@
       <c r="B54">
         <v>17</v>
       </c>
+      <c r="D54">
+        <f>2*A54*$C$32*$B$24/B54</f>
+        <v>9.8270117647058813E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -3404,6 +3423,10 @@
       </c>
       <c r="B55">
         <v>32.5</v>
+      </c>
+      <c r="D55">
+        <f>2*A55*$C$32*$B$24/B55</f>
+        <v>0.10280566153846153</v>
       </c>
     </row>
   </sheetData>
@@ -3416,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD23FA-9054-40C9-ADFC-1B08A9515565}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429148E-E41D-4F8B-9B1C-4F7AADD837BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B53E9-EA57-4117-AF87-5AA6E1281B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>D1, mkm</t>
   </si>
   <si>
-    <t>dL</t>
-  </si>
-  <si>
     <t>D, mkm</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Dc</t>
+  </si>
+  <si>
+    <t>d_Л</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,6 +247,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,19 +794,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43.697084626288166</c:v>
+                  <c:v>87.394169252576333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.330919817645484</c:v>
+                  <c:v>58.661839635290967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.366164808642687</c:v>
+                  <c:v>28.732329617285373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4823775045013985</c:v>
+                  <c:v>14.964755009002797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9859020036011188</c:v>
+                  <c:v>11.971804007202238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2518,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,16 +2532,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2745,13 +2746,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>4.5</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
         <f>B21/B19</f>
@@ -2760,13 +2761,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="3">
         <f>SQRT((B22/B19)^2+(B21*B20/B19^2)^2)</f>
@@ -2775,7 +2776,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <f>86.1+40.5</f>
@@ -2784,13 +2785,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.2</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <f>(B23-SQRT(B23^2-4*A2*B23))/2</f>
@@ -2799,13 +2800,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <f>(B23+SQRT(B23^2-4*A2*B23))/2</f>
@@ -2814,7 +2815,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <f>B23*10</f>
@@ -2823,7 +2824,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -2831,7 +2832,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <f>B25*10</f>
@@ -2840,10 +2841,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2857,25 +2858,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I34" s="4"/>
     </row>
@@ -3391,18 +3392,18 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3447,21 +3448,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3469,14 +3470,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <f>2 * B2 * A!$C$32*A!$B$24/B!A2</f>
-        <v>2.2884821917808218E-2</v>
+        <v>1.1442410958904109E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3484,14 +3485,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <f>2 * B3 * A!$C$32*A!$B$24/B!A3</f>
-        <v>3.4093714285714283E-2</v>
+        <v>1.7046857142857141E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3499,14 +3500,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <f>2 * B4 * A!$C$32*A!$B$24/B!A4</f>
-        <v>6.9607999999999989E-2</v>
+        <v>3.4803999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3514,14 +3515,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <f>2 * B5 * A!$C$32*A!$B$24/B!A5</f>
-        <v>0.13364735999999999</v>
+        <v>6.6823679999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3529,14 +3530,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <f>2 * B6 * A!$C$32*A!$B$24/B!A6</f>
-        <v>0.16705919999999999</v>
+        <v>8.3529599999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>110</v>
@@ -3544,13 +3545,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f>B12/B13</f>
@@ -3559,7 +3560,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <f>(86.1+26.1)*10</f>
@@ -3568,7 +3569,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <f>B11</f>
@@ -3577,16 +3578,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3682,7 +3683,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <f>650/1000</f>
@@ -3691,13 +3692,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <f>B3/B2</f>
@@ -3706,7 +3707,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <f>(86.1+28)*10</f>
@@ -3715,22 +3716,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3753,7 +3754,7 @@
       </c>
       <c r="G7">
         <f>1/B!D2</f>
-        <v>43.697084626288166</v>
+        <v>87.394169252576333</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3776,7 +3777,7 @@
       </c>
       <c r="G8">
         <f>1/B!D3</f>
-        <v>29.330919817645484</v>
+        <v>58.661839635290967</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3799,7 +3800,7 @@
       </c>
       <c r="G9">
         <f>1/B!D4</f>
-        <v>14.366164808642687</v>
+        <v>28.732329617285373</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3822,7 +3823,7 @@
       </c>
       <c r="G10">
         <f>1/B!D5</f>
-        <v>7.4823775045013985</v>
+        <v>14.964755009002797</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3845,7 +3846,7 @@
       </c>
       <c r="G11">
         <f>1/B!D6</f>
-        <v>5.9859020036011188</v>
+        <v>11.971804007202238</v>
       </c>
     </row>
   </sheetData>

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B53E9-EA57-4117-AF87-5AA6E1281B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC32A16-B1E2-47B4-B56E-213143CD74B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>F1, cm</t>
   </si>
@@ -41,9 +41,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>D1, mkm</t>
-  </si>
-  <si>
     <t>D, mkm</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>lamda, nm</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>X, mm</t>
   </si>
   <si>
-    <t>sigma X</t>
-  </si>
-  <si>
     <t>sigma Dc</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>Dc, mm</t>
   </si>
   <si>
-    <t>mkm</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -174,14 +162,40 @@
   </si>
   <si>
     <t>d_Л</t>
+  </si>
+  <si>
+    <t>\sigma_{D_1}</t>
+  </si>
+  <si>
+    <t>\sigma_D</t>
+  </si>
+  <si>
+    <t>\sigma_D, mkm</t>
+  </si>
+  <si>
+    <t>\sigma_{D_L}</t>
+  </si>
+  <si>
+    <t>D_1, mkm</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D_c, mkm</t>
+  </si>
+  <si>
+    <t>\sigma_{D_c}</t>
+  </si>
+  <si>
+    <t>\sigma_X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -209,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,14 +246,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -248,6 +271,9 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -311,7 +337,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6469816272965882E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.87119685039370076"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -326,7 +362,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -356,8 +392,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.2411502624671916"/>
-                  <c:y val="5.5081656459609219E-4"/>
+                  <c:x val="-0.30911986001749781"/>
+                  <c:y val="-3.0932487605715951E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -390,6 +426,200 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>A!$G$7:$G$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>17.790144908868033</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.882433220727133</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.052574139577146</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.29839614261358</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>18.502871213439839</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>18.867835065566737</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>19.148251466022263</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19.456876041872832</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19.792389278957049</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20.153448300202381</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>A!$G$7:$G$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>17.790144908868033</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.882433220727133</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.052574139577146</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18.29839614261358</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>18.502871213439839</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>18.867835065566737</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>19.148251466022263</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19.456876041872832</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>19.792389278957049</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>20.153448300202381</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>A!$C$7:$C$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>A!$C$7:$C$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>A!$B$7:$B$16</c:f>
@@ -431,39 +661,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>A!$C$7:$C$16</c:f>
+              <c:f>A!$F$7:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1500</c:v>
+                  <c:v>35.545023696682463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>88.862559241706165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4500</c:v>
+                  <c:v>142.18009478672985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5500</c:v>
+                  <c:v>195.49763033175356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7000</c:v>
+                  <c:v>231.04265402843603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8500</c:v>
+                  <c:v>284.36018957345971</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9500</c:v>
+                  <c:v>319.90521327014221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11000</c:v>
+                  <c:v>355.45023696682466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12500</c:v>
+                  <c:v>390.99526066350711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14000</c:v>
+                  <c:v>426.54028436018956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,7 +701,415 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2111-46BD-9D7C-047ABBF05145}"/>
+              <c16:uniqueId val="{00000002-4042-4442-AB5F-347741FDDB8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>A!$O$35:$O$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>8.474611188145724E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4518028651615721E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.132773856569258</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.149639454164932</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7825124135171739</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.071953969658205</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.104917505328377</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>11.565024827034348</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.0245922652447916</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>46.407250869473209</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>27.616925794313076</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104.41391755814929</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>41.253020158429905</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>185.62325089918613</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>92.814501738946419</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>A!$O$35:$O$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>8.474611188145724E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4518028651615721E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.132773856569258</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.149639454164932</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7825124135171739</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.071953969658205</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.104917505328377</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>11.565024827034348</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.0245922652447916</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>46.407250869473209</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>27.616925794313076</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>104.41391755814929</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>41.253020158429905</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>185.62325089918613</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>92.814501738946419</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>A!$K$35:$K$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>A!$K$35:$K$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>A!$J$35:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>A!$N$35:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>11.764732394366195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.682461538461537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.663999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.873777777777768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.270117647058811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.24799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208.82399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196.54023529411762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.47104000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>278.43199999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>303.74399999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>417.64799999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>371.24266666666659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>556.86399999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>556.86399999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4042-4442-AB5F-347741FDDB8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,7 +1207,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2151,10 +2789,10 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2486,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,7 +3135,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2505,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.8</v>
       </c>
@@ -2519,10 +3157,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2530,21 +3168,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>560</v>
       </c>
@@ -2553,18 +3197,24 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>1500</v>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
       </c>
       <c r="E7">
-        <f>C7/$E$19</f>
-        <v>53.317535545023695</v>
-      </c>
-      <c r="F7" s="2">
-        <f>SQRT(($C$2/$E$19)^2 + (B7*$E$20/$E$19^2)^2)</f>
-        <v>0.35764866441454268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="F7" s="9">
+        <f>D7/$E$19</f>
+        <v>35.545023696682463</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SQRT((E7/$E$19)^2 + (D7*$E$20/$E$19^2)^2)</f>
+        <v>17.790144908868033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>610</v>
       </c>
@@ -2573,18 +3223,24 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>3000</v>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>2500</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E16" si="1">C8/$E$19</f>
-        <v>106.63507109004739</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F16" si="2">SQRT(($C$2/$E$19)^2 + (B8*$E$20/$E$19^2)^2)</f>
-        <v>0.36416432520321007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F16" si="1">D8/$E$19</f>
+        <v>88.862559241706165</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" ref="G8:G16" si="2">SQRT((E8/$E$19)^2 + (D8*$E$20/$E$19^2)^2)</f>
+        <v>17.882433220727133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>660</v>
       </c>
@@ -2593,18 +3249,24 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>4500</v>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
       </c>
       <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>159.95260663507111</v>
-      </c>
-      <c r="F9" s="2">
+        <v>142.18009478672985</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="2"/>
-        <v>0.37477211307590813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18.052574139577146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>710</v>
       </c>
@@ -2613,18 +3275,24 @@
         <v>200</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>5500</v>
       </c>
       <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>195.49763033175356</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
-        <v>0.38913752083745662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18.29839614261358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>760</v>
       </c>
@@ -2633,18 +3301,24 @@
         <v>250</v>
       </c>
       <c r="C11">
-        <v>7000</v>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>6500</v>
       </c>
       <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>248.81516587677726</v>
-      </c>
-      <c r="F11" s="1">
+        <v>231.04265402843603</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
-        <v>0.40686272365889148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18.502871213439839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>810</v>
       </c>
@@ -2653,18 +3327,24 @@
         <v>300</v>
       </c>
       <c r="C12">
-        <v>8500</v>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>8000</v>
       </c>
       <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>302.13270142180096</v>
-      </c>
-      <c r="F12">
+        <v>284.36018957345971</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="2"/>
-        <v>0.42753003880219898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18.867835065566737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>860</v>
       </c>
@@ -2673,18 +3353,24 @@
         <v>350</v>
       </c>
       <c r="C13">
-        <v>9500</v>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>9000</v>
       </c>
       <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>337.67772511848341</v>
-      </c>
-      <c r="F13">
+        <v>319.90521327014221</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>0.45073493834931061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19.148251466022263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>910</v>
       </c>
@@ -2693,18 +3379,24 @@
         <v>400</v>
       </c>
       <c r="C14">
-        <v>11000</v>
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
       </c>
       <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>390.99526066350711</v>
-      </c>
-      <c r="F14">
+        <v>355.45023696682466</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="2"/>
-        <v>0.4761065296913839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19.456876041872832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>960</v>
       </c>
@@ -2713,18 +3405,24 @@
         <v>450</v>
       </c>
       <c r="C15">
-        <v>12500</v>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>11000</v>
       </c>
       <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15" s="9">
         <f t="shared" si="1"/>
-        <v>444.31279620853081</v>
-      </c>
-      <c r="F15">
+        <v>390.99526066350711</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="2"/>
-        <v>0.5033172587705067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19.792389278957049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1010</v>
       </c>
@@ -2733,50 +3431,56 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>14000</v>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>12000</v>
       </c>
       <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16" s="9">
         <f t="shared" si="1"/>
-        <v>497.63033175355451</v>
-      </c>
-      <c r="F16">
+        <v>426.54028436018956</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="2"/>
-        <v>0.53208504088464148</v>
+        <v>20.153448300202381</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>4.5</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
         <f>B21/B19</f>
         <v>28.133333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
         <f>SQRT((B22/B19)^2+(B21*B20/B19^2)^2)</f>
         <v>0.62676297307435891</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <f>86.1+40.5</f>
@@ -2785,13 +3489,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>0.2</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <f>(B23-SQRT(B23^2-4*A2*B23))/2</f>
@@ -2800,13 +3504,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <f>(B23+SQRT(B23^2-4*A2*B23))/2</f>
@@ -2815,7 +3519,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <f>B23*10</f>
@@ -2824,7 +3528,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -2832,7 +3536,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <f>B25*10</f>
@@ -2841,10 +3545,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2856,557 +3560,670 @@
         <v>6.3279999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>520</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <f>$B$2+1000-A35</f>
         <v>990</v>
       </c>
-      <c r="C35" s="5">
+      <c r="F35" s="4">
+        <f>2*I35*$C$32*$B$24/L35</f>
+        <v>1.1764732394366196E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <f>2*I35*SQRT(SUMSQ($C$32*$B$26/L35, $B$24*$C$32*M35/L35^2))</f>
+        <v>8.4746111881457242E-5</v>
+      </c>
+      <c r="I35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
+      <c r="J35" s="2">
+        <f>1000-B35</f>
+        <v>10</v>
+      </c>
+      <c r="K35" s="2">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3">
         <v>142</v>
       </c>
-      <c r="E35" s="5">
+      <c r="M35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="6">
-        <f>2*C35*$C$32*$B$24/D35</f>
-        <v>1.1764732394366196E-2</v>
-      </c>
-      <c r="G35" s="6">
-        <f>2*C35*SQRT(SUMSQ($C$32*$B$26/D35, $B$24*$C$32*E35/D35^2))</f>
-        <v>8.4746111881457242E-5</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="N35" s="2">
         <f>F35*1000</f>
         <v>11.764732394366195</v>
       </c>
-      <c r="I35" s="4">
-        <f>1000-B35</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <f>G35*1000</f>
+        <v>8.474611188145724E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>520</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <f t="shared" ref="B36:B40" si="3">$B$2+1000-A36</f>
         <v>990</v>
       </c>
-      <c r="C36" s="5">
+      <c r="F36" s="4">
+        <f>2*I36*$C$32*$B$24/L36</f>
+        <v>1.1682461538461537E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <f>2*I36*SQRT(SUMSQ($C$32*$B$26/L36, $B$24*$C$32*M36/L36^2))</f>
+        <v>4.4518028651615724E-5</v>
+      </c>
+      <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="J36" s="2">
+        <f>1000-B36</f>
+        <v>10</v>
+      </c>
+      <c r="K36" s="2">
+        <v>10</v>
+      </c>
+      <c r="L36" s="3">
         <v>286</v>
       </c>
-      <c r="E36" s="5">
+      <c r="M36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="6">
-        <f>2*C36*$C$32*$B$24/D36</f>
-        <v>1.1682461538461537E-2</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" ref="G36:G49" si="4">2*C36*SQRT(SUMSQ($C$32*$B$26/D36, $B$24*$C$32*E36/D36^2))</f>
-        <v>4.4518028651615724E-5</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" ref="H36:H49" si="5">F36*1000</f>
+      <c r="N36" s="2">
+        <f>F36*1000</f>
         <v>11.682461538461537</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" ref="I36:I49" si="6">1000-B36</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <f>G36*1000</f>
+        <v>4.4518028651615721E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>570</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <f t="shared" si="3"/>
         <v>940</v>
       </c>
-      <c r="C37" s="5">
+      <c r="F37" s="4">
+        <f>2*I37*$C$32*$B$24/L37</f>
+        <v>5.9663999999999995E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <f>2*I37*SQRT(SUMSQ($C$32*$B$26/L37, $B$24*$C$32*M37/L37^2))</f>
+        <v>2.1327738565692579E-3</v>
+      </c>
+      <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="5">
+      <c r="J37" s="2">
+        <f>1000-B37</f>
+        <v>60</v>
+      </c>
+      <c r="K37" s="2">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3">
         <v>28</v>
       </c>
-      <c r="E37" s="5">
+      <c r="M37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" ref="F36:F49" si="7">2*C37*$C$32*$B$24/D37</f>
-        <v>5.9663999999999995E-2</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="4"/>
-        <v>2.1327738565692579E-3</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="5"/>
+      <c r="N37" s="2">
+        <f>F37*1000</f>
         <v>59.663999999999994</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <f>G37*1000</f>
+        <v>2.132773856569258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>570</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <f t="shared" si="3"/>
         <v>940</v>
       </c>
-      <c r="C38" s="5">
+      <c r="F38" s="4">
+        <f>2*I38*$C$32*$B$24/L38</f>
+        <v>6.1873777777777771E-2</v>
+      </c>
+      <c r="G38" s="4">
+        <f>2*I38*SQRT(SUMSQ($C$32*$B$26/L38, $B$24*$C$32*M38/L38^2))</f>
+        <v>1.1496394541649321E-3</v>
+      </c>
+      <c r="I38" s="3">
         <v>2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="J38" s="2">
+        <f>1000-B38</f>
+        <v>60</v>
+      </c>
+      <c r="K38" s="2">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3">
         <v>54</v>
       </c>
-      <c r="E38" s="5">
+      <c r="M38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="7"/>
-        <v>6.1873777777777771E-2</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1496394541649321E-3</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="5"/>
+      <c r="N38" s="2">
+        <f>F38*1000</f>
         <v>61.873777777777768</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <f>G38*1000</f>
+        <v>1.149639454164932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>610</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="C39" s="5">
+      <c r="F39" s="4">
+        <f>2*I39*$C$32*$B$24/L39</f>
+        <v>9.8270117647058813E-2</v>
+      </c>
+      <c r="G39" s="4">
+        <f>2*I39*SQRT(SUMSQ($C$32*$B$26/L39, $B$24*$C$32*M39/L39^2))</f>
+        <v>5.7825124135171737E-3</v>
+      </c>
+      <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="5">
+      <c r="J39" s="2">
+        <f>1000-B39</f>
+        <v>100</v>
+      </c>
+      <c r="K39" s="2">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3">
         <v>17</v>
       </c>
-      <c r="E39" s="5">
+      <c r="M39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" si="7"/>
-        <v>9.8270117647058813E-2</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" si="4"/>
-        <v>5.7825124135171737E-3</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="5"/>
+      <c r="N39" s="2">
+        <f>F39*1000</f>
         <v>98.270117647058811</v>
       </c>
-      <c r="I39" s="4">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <f>G39*1000</f>
+        <v>5.7825124135171739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>610</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="C40" s="5">
+      <c r="F40" s="4">
+        <f>2*I40*$C$32*$B$24/L40</f>
+        <v>0.10124799999999999</v>
+      </c>
+      <c r="G40" s="4">
+        <f>2*I40*SQRT(SUMSQ($C$32*$B$26/L40, $B$24*$C$32*M40/L40^2))</f>
+        <v>3.071953969658205E-3</v>
+      </c>
+      <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="J40" s="2">
+        <f>1000-B40</f>
+        <v>100</v>
+      </c>
+      <c r="K40" s="2">
+        <v>10</v>
+      </c>
+      <c r="L40" s="3">
         <v>33</v>
       </c>
-      <c r="E40" s="5">
+      <c r="M40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" si="7"/>
-        <v>0.10124799999999999</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="4"/>
-        <v>3.071953969658205E-3</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="5"/>
+      <c r="N40" s="2">
+        <f>F40*1000</f>
         <v>101.24799999999999</v>
       </c>
-      <c r="I40" s="4">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <f>G40*1000</f>
+        <v>3.071953969658205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>710</v>
       </c>
-      <c r="B41" s="5">
-        <f t="shared" ref="B41:B49" si="8">$B$2+1000-A41</f>
+      <c r="B41" s="3">
+        <f t="shared" ref="B41:B49" si="4">$B$2+1000-A41</f>
         <v>800</v>
       </c>
-      <c r="C41" s="5">
+      <c r="F41" s="5">
+        <f>2*I41*$C$32*$B$24/L41</f>
+        <v>0.20882399999999998</v>
+      </c>
+      <c r="G41" s="4">
+        <f>2*I41*SQRT(SUMSQ($C$32*$B$26/L41, $B$24*$C$32*M41/L41^2))</f>
+        <v>2.6104917505328378E-2</v>
+      </c>
+      <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="5">
+      <c r="J41" s="2">
+        <f>1000-B41</f>
+        <v>200</v>
+      </c>
+      <c r="K41" s="2">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3">
         <v>8</v>
       </c>
-      <c r="E41" s="5">
+      <c r="M41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="7">
-        <f t="shared" si="7"/>
-        <v>0.20882399999999998</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="4"/>
-        <v>2.6104917505328378E-2</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="5"/>
+      <c r="N41" s="2">
+        <f>F41*1000</f>
         <v>208.82399999999998</v>
       </c>
-      <c r="I41" s="4">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <f>G41*1000</f>
+        <v>26.104917505328377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>710</v>
       </c>
-      <c r="B42" s="5">
-        <f t="shared" si="8"/>
+      <c r="B42" s="3">
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="C42" s="5">
+      <c r="F42" s="6">
+        <f>2*I42*$C$32*$B$24/L42</f>
+        <v>0.19654023529411763</v>
+      </c>
+      <c r="G42" s="4">
+        <f>2*I42*SQRT(SUMSQ($C$32*$B$26/L42, $B$24*$C$32*M42/L42^2))</f>
+        <v>1.1565024827034347E-2</v>
+      </c>
+      <c r="I42" s="3">
         <v>2</v>
       </c>
-      <c r="D42" s="5">
+      <c r="J42" s="2">
+        <f>1000-B42</f>
+        <v>200</v>
+      </c>
+      <c r="K42" s="2">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3">
         <v>17</v>
       </c>
-      <c r="E42" s="5">
+      <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="8">
-        <f t="shared" si="7"/>
-        <v>0.19654023529411763</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1565024827034347E-2</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="5"/>
+      <c r="N42" s="2">
+        <f>F42*1000</f>
         <v>196.54023529411762</v>
       </c>
-      <c r="I42" s="4">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <f>G42*1000</f>
+        <v>11.565024827034348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>710</v>
       </c>
-      <c r="B43" s="5">
-        <f t="shared" si="8"/>
+      <c r="B43" s="3">
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="C43" s="5">
+      <c r="F43" s="6">
+        <f>2*I43*$C$32*$B$24/L43</f>
+        <v>0.20047104000000002</v>
+      </c>
+      <c r="G43" s="4">
+        <f>2*I43*SQRT(SUMSQ($C$32*$B$26/L43, $B$24*$C$32*M43/L43^2))</f>
+        <v>8.0245922652447919E-3</v>
+      </c>
+      <c r="I43" s="3">
         <v>3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="J43" s="2">
+        <f>1000-B43</f>
+        <v>200</v>
+      </c>
+      <c r="K43" s="2">
+        <v>10</v>
+      </c>
+      <c r="L43" s="3">
         <v>25</v>
       </c>
-      <c r="E43" s="5">
+      <c r="M43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="8">
-        <f t="shared" si="7"/>
-        <v>0.20047104000000002</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="4"/>
-        <v>8.0245922652447919E-3</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="5"/>
+      <c r="N43" s="2">
+        <f>F43*1000</f>
         <v>200.47104000000002</v>
       </c>
-      <c r="I43" s="4">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <f>G43*1000</f>
+        <v>8.0245922652447916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>810</v>
       </c>
-      <c r="B44" s="5">
-        <f t="shared" si="8"/>
+      <c r="B44" s="3">
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="C44" s="5">
+      <c r="F44" s="5">
+        <f>2*I44*$C$32*$B$24/L44</f>
+        <v>0.27843199999999996</v>
+      </c>
+      <c r="G44" s="4">
+        <f>2*I44*SQRT(SUMSQ($C$32*$B$26/L44, $B$24*$C$32*M44/L44^2))</f>
+        <v>4.6407250869473206E-2</v>
+      </c>
+      <c r="I44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="5">
+      <c r="J44" s="2">
+        <f>1000-B44</f>
+        <v>300</v>
+      </c>
+      <c r="K44" s="2">
+        <v>10</v>
+      </c>
+      <c r="L44" s="3">
         <v>6</v>
       </c>
-      <c r="E44" s="5">
+      <c r="M44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="7">
-        <f t="shared" si="7"/>
-        <v>0.27843199999999996</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="4"/>
-        <v>4.6407250869473206E-2</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="5"/>
+      <c r="N44" s="2">
+        <f>F44*1000</f>
         <v>278.43199999999996</v>
       </c>
-      <c r="I44" s="4">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <f>G44*1000</f>
+        <v>46.407250869473209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>810</v>
       </c>
-      <c r="B45" s="5">
-        <f t="shared" si="8"/>
+      <c r="B45" s="3">
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="C45" s="5">
+      <c r="F45" s="5">
+        <f>2*I45*$C$32*$B$24/L45</f>
+        <v>0.30374399999999996</v>
+      </c>
+      <c r="G45" s="4">
+        <f>2*I45*SQRT(SUMSQ($C$32*$B$26/L45, $B$24*$C$32*M45/L45^2))</f>
+        <v>2.7616925794313074E-2</v>
+      </c>
+      <c r="I45" s="3">
         <v>2</v>
       </c>
-      <c r="D45" s="5">
+      <c r="J45" s="2">
+        <f>1000-B45</f>
+        <v>300</v>
+      </c>
+      <c r="K45" s="2">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3">
         <v>11</v>
       </c>
-      <c r="E45" s="5">
+      <c r="M45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="7">
-        <f t="shared" si="7"/>
-        <v>0.30374399999999996</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" si="4"/>
-        <v>2.7616925794313074E-2</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" si="5"/>
+      <c r="N45" s="2">
+        <f>F45*1000</f>
         <v>303.74399999999997</v>
       </c>
-      <c r="I45" s="4">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <f>G45*1000</f>
+        <v>27.616925794313076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>910</v>
       </c>
-      <c r="B46" s="5">
-        <f t="shared" si="8"/>
+      <c r="B46" s="3">
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="C46" s="5">
+      <c r="F46" s="5">
+        <f>2*I46*$C$32*$B$24/L46</f>
+        <v>0.41764799999999996</v>
+      </c>
+      <c r="G46" s="4">
+        <f>2*I46*SQRT(SUMSQ($C$32*$B$26/L46, $B$24*$C$32*M46/L46^2))</f>
+        <v>0.1044139175581493</v>
+      </c>
+      <c r="I46" s="3">
         <v>1</v>
       </c>
-      <c r="D46" s="5">
+      <c r="J46" s="2">
+        <f>1000-B46</f>
+        <v>400</v>
+      </c>
+      <c r="K46" s="2">
+        <v>10</v>
+      </c>
+      <c r="L46" s="3">
         <v>4</v>
       </c>
-      <c r="E46" s="5">
+      <c r="M46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="7">
-        <f t="shared" si="7"/>
-        <v>0.41764799999999996</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="4"/>
-        <v>0.1044139175581493</v>
-      </c>
-      <c r="H46" s="4">
-        <f t="shared" si="5"/>
+      <c r="N46" s="2">
+        <f>F46*1000</f>
         <v>417.64799999999997</v>
       </c>
-      <c r="I46" s="4">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <f>G46*1000</f>
+        <v>104.41391755814929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>910</v>
       </c>
-      <c r="B47" s="5">
-        <f t="shared" si="8"/>
+      <c r="B47" s="3">
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="C47" s="5">
+      <c r="F47" s="5">
+        <f>2*I47*$C$32*$B$24/L47</f>
+        <v>0.37124266666666661</v>
+      </c>
+      <c r="G47" s="4">
+        <f>2*I47*SQRT(SUMSQ($C$32*$B$26/L47, $B$24*$C$32*M47/L47^2))</f>
+        <v>4.1253020158429902E-2</v>
+      </c>
+      <c r="I47" s="3">
         <v>2</v>
       </c>
-      <c r="D47" s="5">
+      <c r="J47" s="2">
+        <f>1000-B47</f>
+        <v>400</v>
+      </c>
+      <c r="K47" s="2">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3">
         <v>9</v>
       </c>
-      <c r="E47" s="5">
+      <c r="M47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="7">
-        <f t="shared" si="7"/>
-        <v>0.37124266666666661</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="4"/>
-        <v>4.1253020158429902E-2</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="5"/>
+      <c r="N47" s="2">
+        <f>F47*1000</f>
         <v>371.24266666666659</v>
       </c>
-      <c r="I47" s="4">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <f>G47*1000</f>
+        <v>41.253020158429905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1090</v>
       </c>
-      <c r="B48" s="5">
-        <f t="shared" si="8"/>
+      <c r="B48" s="3">
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="C48" s="5">
+      <c r="F48" s="7">
+        <f>2*I48*$C$32*$B$24/L48</f>
+        <v>0.55686399999999991</v>
+      </c>
+      <c r="G48" s="4">
+        <f>2*I48*SQRT(SUMSQ($C$32*$B$26/L48, $B$24*$C$32*M48/L48^2))</f>
+        <v>0.18562325089918613</v>
+      </c>
+      <c r="I48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" s="5">
+      <c r="J48" s="2">
+        <f>1000-B48</f>
+        <v>580</v>
+      </c>
+      <c r="K48" s="2">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="5">
+      <c r="M48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="9">
-        <f t="shared" si="7"/>
-        <v>0.55686399999999991</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="4"/>
-        <v>0.18562325089918613</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" si="5"/>
+      <c r="N48" s="2">
+        <f>F48*1000</f>
         <v>556.86399999999992</v>
       </c>
-      <c r="I48" s="4">
-        <f t="shared" si="6"/>
-        <v>580</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <f>G48*1000</f>
+        <v>185.62325089918613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1090</v>
       </c>
-      <c r="B49" s="5">
-        <f t="shared" si="8"/>
+      <c r="B49" s="3">
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="C49" s="5">
+      <c r="F49" s="5">
+        <f>2*I49*$C$32*$B$24/L49</f>
+        <v>0.55686399999999991</v>
+      </c>
+      <c r="G49" s="4">
+        <f>2*I49*SQRT(SUMSQ($C$32*$B$26/L49, $B$24*$C$32*M49/L49^2))</f>
+        <v>9.2814501738946412E-2</v>
+      </c>
+      <c r="I49" s="3">
         <v>2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="J49" s="2">
+        <f>1000-B49</f>
+        <v>580</v>
+      </c>
+      <c r="K49" s="2">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3">
         <v>6</v>
       </c>
-      <c r="E49" s="5">
+      <c r="M49" s="3">
         <v>1</v>
       </c>
-      <c r="F49" s="7">
-        <f t="shared" si="7"/>
-        <v>0.55686399999999991</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" si="4"/>
-        <v>9.2814501738946412E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <f t="shared" si="5"/>
+      <c r="N49" s="2">
+        <f>F49*1000</f>
         <v>556.86399999999992</v>
       </c>
-      <c r="I49" s="4">
-        <f t="shared" si="6"/>
-        <v>580</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <f>G49*1000</f>
+        <v>92.814501738946419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3418,7 +4235,7 @@
         <v>9.8270117647058813E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3440,7 +4257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD23FA-9054-40C9-ADFC-1B08A9515565}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3448,16 +4265,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3470,7 +4287,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <f>2 * B2 * A!$C$32*A!$B$24/B!A2</f>
         <v>1.1442410958904109E-2</v>
       </c>
@@ -3485,7 +4302,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <f>2 * B3 * A!$C$32*A!$B$24/B!A3</f>
         <v>1.7046857142857141E-2</v>
       </c>
@@ -3500,7 +4317,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <f>2 * B4 * A!$C$32*A!$B$24/B!A4</f>
         <v>3.4803999999999995E-2</v>
       </c>
@@ -3515,7 +4332,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <f>2 * B5 * A!$C$32*A!$B$24/B!A5</f>
         <v>6.6823679999999996E-2</v>
       </c>
@@ -3530,14 +4347,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f>2 * B6 * A!$C$32*A!$B$24/B!A6</f>
         <v>8.3529599999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>110</v>
@@ -3545,13 +4362,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <f>B12/B13</f>
@@ -3560,7 +4377,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <f>(86.1+26.1)*10</f>
@@ -3569,7 +4386,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <f>B11</f>
@@ -3578,16 +4395,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3683,7 +4500,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <f>650/1000</f>
@@ -3692,13 +4509,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <f>B3/B2</f>
@@ -3707,7 +4524,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <f>(86.1+28)*10</f>
@@ -3716,22 +4533,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC32A16-B1E2-47B4-B56E-213143CD74B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8700C19-ECDC-4B78-97E4-D606AD2951F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,37 +305,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -343,9 +313,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.6469816272965882E-2"/>
-          <c:y val="0.17171296296296298"/>
+          <c:y val="4.939662778126068E-2"/>
           <c:w val="0.87119685039370076"/>
-          <c:h val="0.72088764946048411"/>
+          <c:h val="0.84320385642166906"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -387,44 +357,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.30911986001749781"/>
-                  <c:y val="-3.0932487605715951E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1159,6 +1093,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="stealth"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1221,6 +1156,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="stealth"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1297,6 +1233,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2783,16 +2720,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171071</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>487136</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2821,6 +2758,108 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06997</cdr:x>
+      <cdr:y>0.05313</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16419</cdr:x>
+      <cdr:y>0.11398</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5175F5B-A415-4858-AB89-DB1C65A2BC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="531412" y="237214"/>
+          <a:ext cx="715618" cy="271669"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f(D), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>мкм</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87001</cdr:x>
+      <cdr:y>0.83526</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95376</cdr:x>
+      <cdr:y>0.89314</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4992E08F-3650-4CB8-80E6-B0B256C5D84E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6607533" y="3729162"/>
+          <a:ext cx="636105" cy="258417"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>D,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>мкм</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3126,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8700C19-ECDC-4B78-97E4-D606AD2951F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2387317C-54DD-43BA-93AF-E9C447A51540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>F1, cm</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>\sigma_X</t>
+  </si>
+  <si>
+    <t>\sigma_{d_c}</t>
+  </si>
+  <si>
+    <t>d_c, мкм</t>
+  </si>
+  <si>
+    <t>\sigma_{d_c}, мкм</t>
+  </si>
+  <si>
+    <t>\sigma_{d_Л}</t>
+  </si>
+  <si>
+    <t>\sigma_G</t>
+  </si>
+  <si>
+    <t>\lambda, mm</t>
   </si>
 </sst>
 </file>
@@ -3165,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4294,127 +4312,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD23FA-9054-40C9-ADFC-1B08A9515565}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>146</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
-        <f>2 * B2 * A!$C$32*A!$B$24/B!A2</f>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <f>H2*1000</f>
+        <v>11.442410958904109</v>
+      </c>
+      <c r="F2" s="8">
+        <f>I2*1000</f>
+        <v>4.2850207122340521E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <f>2 * C2 * A!$C$32*A!$B$24/B!A2</f>
         <v>1.1442410958904109E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2" s="8">
+        <f>SQRT(SUMSQ(2*C2*A!$C$32 * A!$B$26/B!A2,2*C2*A!$C$32*A!$B$24*B!B2/B!A2^2))</f>
+        <v>4.2850207122340524E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>98</v>
       </c>
       <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
-        <f>2 * B3 * A!$C$32*A!$B$24/B!A3</f>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E6" si="0">H3*1000</f>
+        <v>17.046857142857142</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F6" si="1">I3*1000</f>
+        <v>9.0727890931409913E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <f>2 * C3 * A!$C$32*A!$B$24/B!A3</f>
         <v>1.7046857142857141E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3" s="8">
+        <f>SQRT(SUMSQ(2*C3*A!$C$32 * A!$B$26/B!A3,2*C3*A!$C$32*A!$B$24*B!B3/B!A3^2))</f>
+        <v>9.0727890931409919E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>48</v>
       </c>
       <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" s="8">
-        <f>2 * B4 * A!$C$32*A!$B$24/B!A4</f>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>34.803999999999995</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36635674487292963</v>
+      </c>
+      <c r="H4" s="8">
+        <f>2 * C4 * A!$C$32*A!$B$24/B!A4</f>
         <v>3.4803999999999995E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4" s="8">
+        <f>SQRT(SUMSQ(2*C4*A!$C$32 * A!$B$26/B!A4,2*C4*A!$C$32*A!$B$24*B!B4/B!A4^2))</f>
+        <v>3.6635674487292964E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>25</v>
       </c>
       <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
-        <f>2 * B5 * A!$C$32*A!$B$24/B!A5</f>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>66.823679999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3403032645640165</v>
+      </c>
+      <c r="H5" s="8">
+        <f>2 * C5 * A!$C$32*A!$B$24/B!A5</f>
         <v>6.6823679999999996E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="8">
+        <f>SQRT(SUMSQ(2*C5*A!$C$32 * A!$B$26/B!A5,2*C5*A!$C$32*A!$B$24*B!B5/B!A5^2))</f>
+        <v>1.3403032645640165E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
-        <f>2 * B6 * A!$C$32*A!$B$24/B!A6</f>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>83.529600000000002</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0920716362495813</v>
+      </c>
+      <c r="H6" s="8">
+        <f>2 * C6 * A!$C$32*A!$B$24/B!A6</f>
         <v>8.3529599999999996E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="8">
+        <f>SQRT(SUMSQ(2*C6*A!$C$32 * A!$B$26/B!A6,2*C6*A!$C$32*A!$B$24*B!B6/B!A6^2))</f>
+        <v>2.0920716362495813E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="1">
         <f>B12/B13</f>
         <v>44.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f>A!C32</f>
+        <v>6.3279999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4422,8 +4540,18 @@
         <f>(86.1+26.1)*10</f>
         <v>1122</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SQRT(SUMSQ(C12/B13,B12*C13/B13^2))</f>
+        <v>0.89782278875065313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4431,95 +4559,185 @@
         <f>B11</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>147*2</f>
         <v>294</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <f>A!$C$32*B!$E$11*B!$B$10/B!A16</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f>G16*1000</f>
+        <v>10.625874285714287</v>
+      </c>
+      <c r="F16" s="1">
+        <f>H16*1000</f>
+        <v>0.23418798478736794</v>
+      </c>
+      <c r="G16">
+        <f>A!$C$32*B!$F$11*B!$B$10/B!A16</f>
         <v>1.0625874285714288E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>SQRT(SUMSQ($F$12*$H$11*$B$10/A16,B!$F$11*B!$H$11*B!$C$10/B!A16,B!$F$11*B!$H$11*B!$B$10*B!B16/B!A16^2))</f>
+        <v>2.3418798478736793E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205</v>
       </c>
       <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <f>A!$C$32*B!$E$11*B!$B$10/B!A17</f>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:E20" si="2">G17*1000</f>
+        <v>15.239058731707319</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:F20" si="3">H17*1000</f>
+        <v>0.33691489584020401</v>
+      </c>
+      <c r="G17">
+        <f>A!$C$32*B!$F$11*B!$B$10/B!A17</f>
         <v>1.523905873170732E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>SQRT(SUMSQ($F$12*$H$11*$B$10/A17,B!$F$11*B!$H$11*B!$C$10/B!A17,B!$F$11*B!$H$11*B!$B$10*B!B17/B!A17^2))</f>
+        <v>3.36914895840204E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>104</v>
       </c>
       <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18">
-        <f>A!$C$32*B!$E$11*B!$B$10/B!A18</f>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>30.038529230769235</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.67567137665523613</v>
+      </c>
+      <c r="G18">
+        <f>A!$C$32*B!$F$11*B!$B$10/B!A18</f>
         <v>3.0038529230769235E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f>SQRT(SUMSQ($F$12*$H$11*$B$10/A18,B!$F$11*B!$H$11*B!$C$10/B!A18,B!$F$11*B!$H$11*B!$B$10*B!B18/B!A18^2))</f>
+        <v>6.7567137665523616E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>52.5</v>
       </c>
       <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19">
-        <f>A!$C$32*B!$E$11*B!$B$10/B!A19</f>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>59.504896000000009</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.425072273433182</v>
+      </c>
+      <c r="G19">
+        <f>A!$C$32*B!$F$11*B!$B$10/B!A19</f>
         <v>5.9504896000000009E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>SQRT(SUMSQ($F$12*$H$11*$B$10/A19,B!$F$11*B!$H$11*B!$C$10/B!A19,B!$F$11*B!$H$11*B!$B$10*B!B19/B!A19^2))</f>
+        <v>1.425072273433182E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
       <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <f>A!$C$32*B!$E$11*B!$B$10/B!A20</f>
+      <c r="E20" s="9">
+        <f t="shared" si="2"/>
+        <v>82.210711578947382</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>2.1055789259303106</v>
+      </c>
+      <c r="G20">
+        <f>A!$C$32*B!$F$11*B!$B$10/B!A20</f>
         <v>8.2210711578947382E-2</v>
+      </c>
+      <c r="H20">
+        <f>SQRT(SUMSQ($F$12*$H$11*$B$10/A20,B!$F$11*B!$H$11*B!$C$10/B!A20,B!$F$11*B!$H$11*B!$B$10*B!B20/B!A20^2))</f>
+        <v>2.1055789259303106E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4827,7 @@
         <v>4.377738825591587</v>
       </c>
       <c r="G7">
-        <f>1/B!D2</f>
+        <f>1/B!H2</f>
         <v>87.394169252576333</v>
       </c>
     </row>
@@ -4632,7 +4850,7 @@
         <v>2.8374233128834359</v>
       </c>
       <c r="G8">
-        <f>1/B!D3</f>
+        <f>1/B!H3</f>
         <v>58.661839635290967</v>
       </c>
     </row>
@@ -4655,7 +4873,7 @@
         <v>1.6213847502191061</v>
       </c>
       <c r="G9">
-        <f>1/B!D4</f>
+        <f>1/B!H4</f>
         <v>28.732329617285373</v>
       </c>
     </row>
@@ -4678,7 +4896,7 @@
         <v>0.85122699386503076</v>
       </c>
       <c r="G10">
-        <f>1/B!D5</f>
+        <f>1/B!H5</f>
         <v>14.964755009002797</v>
       </c>
     </row>
@@ -4701,7 +4919,7 @@
         <v>1.2160385626643295</v>
       </c>
       <c r="G11">
-        <f>1/B!D6</f>
+        <f>1/B!H6</f>
         <v>11.971804007202238</v>
       </c>
     </row>

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2387317C-54DD-43BA-93AF-E9C447A51540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B43703-E97A-4589-8401-50EBCC6A296F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>F1, cm</t>
   </si>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>\lambda, mm</t>
+  </si>
+  <si>
+    <t>\sigma_{1/d_c}</t>
+  </si>
+  <si>
+    <t>\sigma_{G_2}</t>
+  </si>
+  <si>
+    <t>\sigma_Y</t>
+  </si>
+  <si>
+    <t>\sigma_{dY}</t>
+  </si>
+  <si>
+    <t>\sigma_{dy}</t>
   </si>
 </sst>
 </file>
@@ -279,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -289,6 +304,7 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1269,37 +1285,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1341,50 +1327,148 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.27822200349956255"/>
-                  <c:y val="2.1912365121026537E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'C'!$B$15:$B$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.2269672881116112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.127239371304494E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0776992614480097E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0400877291840185E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0671131779567958E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'C'!$B$15:$B$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.2269672881116112E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.127239371304494E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0776992614480097E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0400877291840185E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0671131779567958E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'C'!$D$15:$D$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.32727877605581485</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31221385523821543</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.30244462565236002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30015273016941252</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.29984426596328578</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'C'!$D$15:$D$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.32727877605581485</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31221385523821543</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.30244462565236002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30015273016941252</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.29984426596328578</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'C'!$G$7:$G$11</c:f>
+              <c:f>'C'!$C$15:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>87.394169252576333</c:v>
@@ -1406,9 +1490,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C'!$E$7:$E$11</c:f>
+              <c:f>'C'!$A$15:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.377738825591587</c:v>
@@ -1467,7 +1551,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1481,6 +1565,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="stealth"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1529,7 +1614,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1543,6 +1628,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="stealth"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2882,15 +2968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3262,11 +3348,11 @@
       <c r="E7">
         <v>500</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <f>D7/$E$19</f>
         <v>35.545023696682463</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <f>SQRT((E7/$E$19)^2 + (D7*$E$20/$E$19^2)^2)</f>
         <v>17.790144908868033</v>
       </c>
@@ -3288,11 +3374,11 @@
       <c r="E8">
         <v>500</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <f t="shared" ref="F8:F16" si="1">D8/$E$19</f>
         <v>88.862559241706165</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <f t="shared" ref="G8:G16" si="2">SQRT((E8/$E$19)^2 + (D8*$E$20/$E$19^2)^2)</f>
         <v>17.882433220727133</v>
       </c>
@@ -3314,11 +3400,11 @@
       <c r="E9">
         <v>500</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>142.18009478672985</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <f t="shared" si="2"/>
         <v>18.052574139577146</v>
       </c>
@@ -3340,11 +3426,11 @@
       <c r="E10">
         <v>500</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>195.49763033175356</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>18.29839614261358</v>
       </c>
@@ -3366,11 +3452,11 @@
       <c r="E11">
         <v>500</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>231.04265402843603</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <f t="shared" si="2"/>
         <v>18.502871213439839</v>
       </c>
@@ -3392,11 +3478,11 @@
       <c r="E12">
         <v>500</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>284.36018957345971</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <f t="shared" si="2"/>
         <v>18.867835065566737</v>
       </c>
@@ -3418,11 +3504,11 @@
       <c r="E13">
         <v>500</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>319.90521327014221</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <f t="shared" si="2"/>
         <v>19.148251466022263</v>
       </c>
@@ -3444,11 +3530,11 @@
       <c r="E14">
         <v>500</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>355.45023696682466</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <f t="shared" si="2"/>
         <v>19.456876041872832</v>
       </c>
@@ -3470,11 +3556,11 @@
       <c r="E15">
         <v>500</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>390.99526066350711</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>19.792389278957049</v>
       </c>
@@ -3496,11 +3582,11 @@
       <c r="E16">
         <v>500</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>426.54028436018956</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <f t="shared" si="2"/>
         <v>20.153448300202381</v>
       </c>
@@ -3633,7 +3719,7 @@
       <c r="J34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -3645,7 +3731,7 @@
       <c r="N34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4314,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD23FA-9054-40C9-ADFC-1B08A9515565}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:F20"/>
     </sheetView>
   </sheetViews>
@@ -4482,11 +4568,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>83.529600000000002</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
         <v>2.0920716362495813</v>
       </c>
@@ -4723,11 +4809,11 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <f t="shared" si="2"/>
         <v>82.210711578947382</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <f t="shared" si="3"/>
         <v>2.1055789259303106</v>
       </c>
@@ -4747,15 +4833,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8669D3-63AE-42D1-B67A-5468032613CA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4764,22 +4850,25 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2">
         <v>185</v>
       </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
       <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <f>B3/B2</f>
         <v>6.1675675675675672</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4787,140 +4876,249 @@
         <f>(86.1+28)*10</f>
         <v>1141</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9">
+        <f>SQRT(SUMSQ(C3/B2,B3*C2/B2^2))</f>
+        <v>1.6886786190654438E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>54</v>
       </c>
       <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <f>A7/B7</f>
+      <c r="E7" s="1">
+        <f>A7/C7</f>
         <v>27</v>
       </c>
-      <c r="E7">
-        <f>D7/$E$2</f>
+      <c r="F7" s="1">
+        <f>B7/C7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>A8/C8</f>
+        <v>17.5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F11" si="0">B8/C8</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>A9/C9</f>
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f>A10/C10</f>
+        <v>5.25</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f>A11/C11</f>
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <f>E7/$E$2</f>
         <v>4.377738825591587</v>
       </c>
-      <c r="G7">
+      <c r="B15" s="8">
+        <f>SQRT(SUMSQ(F7/$E$2,E7*$E$3/$E$2^2))</f>
+        <v>4.2269672881116112E-2</v>
+      </c>
+      <c r="C15" s="1">
         <f>1/B!H2</f>
         <v>87.394169252576333</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D11" si="0">A8/B8</f>
-        <v>17.5</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E11" si="1">D8/$E$2</f>
+      <c r="D15" s="1">
+        <f>B!I2*'C'!C15^2</f>
+        <v>0.32727877605581485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f>E8/$E$2</f>
         <v>2.8374233128834359</v>
       </c>
-      <c r="G8">
+      <c r="B16" s="8">
+        <f t="shared" ref="B16:B19" si="1">SQRT(SUMSQ(F8/$E$2,E8*$E$3/$E$2^2))</f>
+        <v>4.127239371304494E-2</v>
+      </c>
+      <c r="C16" s="1">
         <f>1/B!H3</f>
         <v>58.661839635290967</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E9">
+      <c r="D16" s="1">
+        <f>B!I3*'C'!C16^2</f>
+        <v>0.31221385523821543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <f>E9/$E$2</f>
+        <v>1.6213847502191061</v>
+      </c>
+      <c r="B17" s="8">
         <f t="shared" si="1"/>
-        <v>1.6213847502191061</v>
-      </c>
-      <c r="G9">
+        <v>4.0776992614480097E-2</v>
+      </c>
+      <c r="C17" s="1">
         <f>1/B!H4</f>
         <v>28.732329617285373</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-      <c r="E10">
+      <c r="D17" s="1">
+        <f>B!I4*'C'!C17^2</f>
+        <v>0.30244462565236002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <f>E10/$E$2</f>
+        <v>0.85122699386503076</v>
+      </c>
+      <c r="B18" s="8">
         <f t="shared" si="1"/>
-        <v>0.85122699386503076</v>
-      </c>
-      <c r="G10">
+        <v>2.0400877291840185E-2</v>
+      </c>
+      <c r="C18" s="1">
         <f>1/B!H5</f>
         <v>14.964755009002797</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="E11">
+      <c r="D18" s="1">
+        <f>B!I5*'C'!C18^2</f>
+        <v>0.30015273016941252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <f>E11/$E$2</f>
+        <v>1.2160385626643295</v>
+      </c>
+      <c r="B19" s="8">
         <f t="shared" si="1"/>
-        <v>1.2160385626643295</v>
-      </c>
-      <c r="G11">
+        <v>4.0671131779567958E-2</v>
+      </c>
+      <c r="C19" s="1">
         <f>1/B!H6</f>
         <v>11.971804007202238</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B!I6*'C'!C19^2</f>
+        <v>0.29984426596328578</v>
       </c>
     </row>
   </sheetData>

--- a/4.3.4/fourier.xlsx
+++ b/4.3.4/fourier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B43703-E97A-4589-8401-50EBCC6A296F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0115CAF-BC74-449F-B705-EA7E8D86D8FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1705,6 +1705,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2970,13 +2971,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324678</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3001,7 +3002,128 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="580544" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF98209-3A23-4A28-BC31-351294F41439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5586046" y="902677"/>
+          <a:ext cx="580544" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dy, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>мм</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76154</cdr:x>
+      <cdr:y>0.8043</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93628</cdr:x>
+      <cdr:y>0.8972</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72594FE9-935F-4536-9B28-77FFE18361EF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3481754" y="2192214"/>
+          <a:ext cx="798928" cy="253219"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dc,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>1/мм</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4835,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8669D3-63AE-42D1-B67A-5468032613CA}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
